--- a/Fichier_excel/Reseau_68.xlsx
+++ b/Fichier_excel/Reseau_68.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Description noeuds" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Lignes réseau initial" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Lignes réseau final" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Feuille4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="20">
   <si>
     <t xml:space="preserve">Numero du nœud</t>
   </si>
@@ -73,6 +74,15 @@
   </si>
   <si>
     <t xml:space="preserve">Imax(A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tension secondaire transformateur (pu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sbase (MVA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubase (kV)</t>
   </si>
 </sst>
 </file>
@@ -157,32 +167,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -209,7 +211,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="18.71"/>
@@ -2086,31 +2088,31 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="4" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="1" width="10.85"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2121,7 +2123,7 @@
       <c r="B2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="n">
@@ -2141,7 +2143,7 @@
       <c r="B3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="n">
@@ -2161,7 +2163,7 @@
       <c r="B4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="n">
@@ -2181,7 +2183,7 @@
       <c r="B5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="n">
@@ -2201,7 +2203,7 @@
       <c r="B6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="n">
@@ -2221,7 +2223,7 @@
       <c r="B7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D7" s="3" t="n">
@@ -2241,7 +2243,7 @@
       <c r="B8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D8" s="3" t="n">
@@ -2261,7 +2263,7 @@
       <c r="B9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D9" s="3" t="n">
@@ -2281,7 +2283,7 @@
       <c r="B10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D10" s="3" t="n">
@@ -2301,7 +2303,7 @@
       <c r="B11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D11" s="3" t="n">
@@ -2321,7 +2323,7 @@
       <c r="B12" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D12" s="3" t="n">
@@ -2341,7 +2343,7 @@
       <c r="B13" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="3" t="n">
@@ -2361,7 +2363,7 @@
       <c r="B14" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="3" t="n">
@@ -2381,7 +2383,7 @@
       <c r="B15" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="3" t="n">
@@ -2401,7 +2403,7 @@
       <c r="B16" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="3" t="n">
@@ -2421,7 +2423,7 @@
       <c r="B17" s="3" t="n">
         <v>68</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="3" t="n">
@@ -2441,7 +2443,7 @@
       <c r="B18" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="3" t="n">
@@ -2461,7 +2463,7 @@
       <c r="B19" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="3" t="n">
@@ -2481,7 +2483,7 @@
       <c r="B20" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="3" t="n">
@@ -2501,7 +2503,7 @@
       <c r="B21" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="3" t="n">
@@ -2521,7 +2523,7 @@
       <c r="B22" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="C22" s="4" t="n">
+      <c r="C22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D22" s="3" t="n">
@@ -2541,7 +2543,7 @@
       <c r="B23" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="C23" s="4" t="n">
+      <c r="C23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D23" s="3" t="n">
@@ -2561,7 +2563,7 @@
       <c r="B24" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="C24" s="4" t="n">
+      <c r="C24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D24" s="3" t="n">
@@ -2581,7 +2583,7 @@
       <c r="B25" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="C25" s="4" t="n">
+      <c r="C25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D25" s="3" t="n">
@@ -2601,7 +2603,7 @@
       <c r="B26" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="C26" s="4" t="n">
+      <c r="C26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="3" t="n">
@@ -2621,7 +2623,7 @@
       <c r="B27" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="C27" s="4" t="n">
+      <c r="C27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D27" s="3" t="n">
@@ -2641,7 +2643,7 @@
       <c r="B28" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="C28" s="4" t="n">
+      <c r="C28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D28" s="3" t="n">
@@ -2661,7 +2663,7 @@
       <c r="B29" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="C29" s="4" t="n">
+      <c r="C29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D29" s="3" t="n">
@@ -2681,7 +2683,7 @@
       <c r="B30" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="C30" s="4" t="n">
+      <c r="C30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D30" s="3" t="n">
@@ -2701,7 +2703,7 @@
       <c r="B31" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="C31" s="4" t="n">
+      <c r="C31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D31" s="3" t="n">
@@ -2721,7 +2723,7 @@
       <c r="B32" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="C32" s="4" t="n">
+      <c r="C32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D32" s="3" t="n">
@@ -2741,7 +2743,7 @@
       <c r="B33" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="C33" s="4" t="n">
+      <c r="C33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D33" s="3" t="n">
@@ -2761,7 +2763,7 @@
       <c r="B34" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="C34" s="4" t="n">
+      <c r="C34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D34" s="3" t="n">
@@ -2781,7 +2783,7 @@
       <c r="B35" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="C35" s="4" t="n">
+      <c r="C35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D35" s="3" t="n">
@@ -2801,7 +2803,7 @@
       <c r="B36" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="C36" s="4" t="n">
+      <c r="C36" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D36" s="3" t="n">
@@ -2821,7 +2823,7 @@
       <c r="B37" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="C37" s="4" t="n">
+      <c r="C37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D37" s="3" t="n">
@@ -2841,7 +2843,7 @@
       <c r="B38" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="C38" s="4" t="n">
+      <c r="C38" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D38" s="3" t="n">
@@ -2861,7 +2863,7 @@
       <c r="B39" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="C39" s="4" t="n">
+      <c r="C39" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D39" s="3" t="n">
@@ -2881,7 +2883,7 @@
       <c r="B40" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="C40" s="4" t="n">
+      <c r="C40" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D40" s="3" t="n">
@@ -2901,7 +2903,7 @@
       <c r="B41" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="C41" s="4" t="n">
+      <c r="C41" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D41" s="3" t="n">
@@ -2921,7 +2923,7 @@
       <c r="B42" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="C42" s="4" t="n">
+      <c r="C42" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D42" s="3" t="n">
@@ -2941,7 +2943,7 @@
       <c r="B43" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="C43" s="4" t="n">
+      <c r="C43" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D43" s="3" t="n">
@@ -2961,7 +2963,7 @@
       <c r="B44" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="C44" s="4" t="n">
+      <c r="C44" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D44" s="3" t="n">
@@ -2981,7 +2983,7 @@
       <c r="B45" s="3" t="n">
         <v>43</v>
       </c>
-      <c r="C45" s="4" t="n">
+      <c r="C45" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D45" s="3" t="n">
@@ -3001,7 +3003,7 @@
       <c r="B46" s="3" t="n">
         <v>44</v>
       </c>
-      <c r="C46" s="4" t="n">
+      <c r="C46" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D46" s="3" t="n">
@@ -3021,7 +3023,7 @@
       <c r="B47" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="C47" s="4" t="n">
+      <c r="C47" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D47" s="3" t="n">
@@ -3041,7 +3043,7 @@
       <c r="B48" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="C48" s="4" t="n">
+      <c r="C48" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D48" s="3" t="n">
@@ -3061,7 +3063,7 @@
       <c r="B49" s="3" t="n">
         <v>47</v>
       </c>
-      <c r="C49" s="4" t="n">
+      <c r="C49" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D49" s="3" t="n">
@@ -3081,7 +3083,7 @@
       <c r="B50" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="C50" s="4" t="n">
+      <c r="C50" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D50" s="3" t="n">
@@ -3101,7 +3103,7 @@
       <c r="B51" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="C51" s="4" t="n">
+      <c r="C51" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D51" s="3" t="n">
@@ -3121,7 +3123,7 @@
       <c r="B52" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="C52" s="4" t="n">
+      <c r="C52" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D52" s="3" t="n">
@@ -3141,7 +3143,7 @@
       <c r="B53" s="3" t="n">
         <v>51</v>
       </c>
-      <c r="C53" s="4" t="n">
+      <c r="C53" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D53" s="3" t="n">
@@ -3161,7 +3163,7 @@
       <c r="B54" s="3" t="n">
         <v>52</v>
       </c>
-      <c r="C54" s="4" t="n">
+      <c r="C54" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D54" s="3" t="n">
@@ -3181,7 +3183,7 @@
       <c r="B55" s="3" t="n">
         <v>53</v>
       </c>
-      <c r="C55" s="4" t="n">
+      <c r="C55" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D55" s="3" t="n">
@@ -3201,7 +3203,7 @@
       <c r="B56" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="C56" s="4" t="n">
+      <c r="C56" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D56" s="3" t="n">
@@ -3221,7 +3223,7 @@
       <c r="B57" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="C57" s="4" t="n">
+      <c r="C57" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D57" s="3" t="n">
@@ -3241,7 +3243,7 @@
       <c r="B58" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="C58" s="4" t="n">
+      <c r="C58" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D58" s="3" t="n">
@@ -3261,7 +3263,7 @@
       <c r="B59" s="3" t="n">
         <v>57</v>
       </c>
-      <c r="C59" s="4" t="n">
+      <c r="C59" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D59" s="3" t="n">
@@ -3281,7 +3283,7 @@
       <c r="B60" s="3" t="n">
         <v>58</v>
       </c>
-      <c r="C60" s="4" t="n">
+      <c r="C60" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D60" s="3" t="n">
@@ -3301,7 +3303,7 @@
       <c r="B61" s="3" t="n">
         <v>59</v>
       </c>
-      <c r="C61" s="4" t="n">
+      <c r="C61" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D61" s="3" t="n">
@@ -3321,7 +3323,7 @@
       <c r="B62" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="C62" s="4" t="n">
+      <c r="C62" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D62" s="3" t="n">
@@ -3341,7 +3343,7 @@
       <c r="B63" s="3" t="n">
         <v>61</v>
       </c>
-      <c r="C63" s="4" t="n">
+      <c r="C63" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D63" s="3" t="n">
@@ -3361,7 +3363,7 @@
       <c r="B64" s="3" t="n">
         <v>62</v>
       </c>
-      <c r="C64" s="4" t="n">
+      <c r="C64" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D64" s="3" t="n">
@@ -3381,7 +3383,7 @@
       <c r="B65" s="3" t="n">
         <v>63</v>
       </c>
-      <c r="C65" s="4" t="n">
+      <c r="C65" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D65" s="3" t="n">
@@ -3401,7 +3403,7 @@
       <c r="B66" s="3" t="n">
         <v>64</v>
       </c>
-      <c r="C66" s="4" t="n">
+      <c r="C66" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D66" s="3" t="n">
@@ -3421,7 +3423,7 @@
       <c r="B67" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="C67" s="4" t="n">
+      <c r="C67" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D67" s="3" t="n">
@@ -3441,7 +3443,7 @@
       <c r="B68" s="3" t="n">
         <v>66</v>
       </c>
-      <c r="C68" s="4" t="n">
+      <c r="C68" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D68" s="3" t="n">
@@ -3461,10 +3463,10 @@
       <c r="B69" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="C69" s="4" t="n">
+      <c r="C69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D69" s="6" t="n">
+      <c r="D69" s="4" t="n">
         <v>0.0750413223140496</v>
       </c>
       <c r="E69" s="3" t="n">
@@ -3481,7 +3483,7 @@
       <c r="B70" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="C70" s="4" t="n">
+      <c r="C70" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D70" s="3" t="n">
@@ -3501,7 +3503,7 @@
       <c r="B71" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="C71" s="4" t="n">
+      <c r="C71" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D71" s="3" t="n">
@@ -3521,7 +3523,7 @@
       <c r="B72" s="3" t="n">
         <v>66</v>
       </c>
-      <c r="C72" s="4" t="n">
+      <c r="C72" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D72" s="3" t="n">
@@ -3541,7 +3543,7 @@
       <c r="B73" s="3" t="n">
         <v>63</v>
       </c>
-      <c r="C73" s="4" t="n">
+      <c r="C73" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D73" s="3" t="n">
@@ -3561,7 +3563,7 @@
       <c r="B74" s="3" t="n">
         <v>59</v>
       </c>
-      <c r="C74" s="4" t="n">
+      <c r="C74" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D74" s="3" t="n">
@@ -3581,7 +3583,7 @@
       <c r="B75" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="C75" s="4" t="n">
+      <c r="C75" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D75" s="3" t="n">
@@ -3601,7 +3603,7 @@
       <c r="B76" s="3" t="n">
         <v>58</v>
       </c>
-      <c r="C76" s="4" t="n">
+      <c r="C76" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D76" s="3" t="n">
@@ -3621,7 +3623,7 @@
       <c r="B77" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="C77" s="4" t="n">
+      <c r="C77" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D77" s="3" t="n">
@@ -3641,7 +3643,7 @@
       <c r="B78" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="C78" s="4" t="n">
+      <c r="C78" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D78" s="3" t="n">
@@ -3661,7 +3663,7 @@
       <c r="B79" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="C79" s="4" t="n">
+      <c r="C79" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D79" s="3" t="n">
@@ -3692,11 +3694,11 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.57"/>
@@ -3745,9 +3747,6 @@
       <c r="C3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -3792,9 +3791,6 @@
       <c r="C7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -3817,9 +3813,6 @@
       <c r="C9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -3831,9 +3824,6 @@
       <c r="C10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -3845,9 +3835,6 @@
       <c r="C11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
@@ -3870,9 +3857,6 @@
       <c r="C13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
@@ -3895,9 +3879,6 @@
       <c r="C15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
@@ -4546,4 +4527,52 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Fichier_excel/Reseau_68.xlsx
+++ b/Fichier_excel/Reseau_68.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Description noeuds" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,9 +23,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="22">
   <si>
-    <t xml:space="preserve">Numero du nœud</t>
+    <t xml:space="preserve">Numero du noeud</t>
   </si>
   <si>
     <t xml:space="preserve">Type</t>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t xml:space="preserve">Imax(A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parametre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valeur</t>
   </si>
   <si>
     <t xml:space="preserve">Tension secondaire transformateur (pu)</t>
@@ -167,7 +173,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -185,6 +191,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -207,8 +217,8 @@
   </sheetPr>
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -220,7 +230,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="10.85"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2085,7 +2095,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A1 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3695,7 +3705,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A1 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4534,35 +4544,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="A1 B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="n">
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="n">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="n">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5" t="n">
         <v>20</v>
       </c>
     </row>
